--- a/nats_plot.xlsx
+++ b/nats_plot.xlsx
@@ -8,21 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stevenlautenbach/Documents/GitHub/national-archives/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB059CE-73C1-1D4D-B8AF-A22020D6F47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A1A0DD-4BEE-744F-A52A-606186896D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="760" windowWidth="34560" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$B$11</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -159,10 +151,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="107"/>
+      <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="7"/>
+      <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -173,7 +165,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="4000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -186,7 +178,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="4000"/>
               <a:t>Nationalities, England's Immigrants 1330-1550</a:t>
             </a:r>
           </a:p>
@@ -205,7 +197,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="4000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -245,7 +237,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5">
+                <a:schemeClr val="accent1">
                   <a:tint val="46000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -267,7 +259,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5">
+                <a:schemeClr val="accent1">
                   <a:tint val="62000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -278,13 +270,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3A9C-A149-8316-6D6E19866A43}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5">
+                <a:schemeClr val="accent1">
                   <a:tint val="77000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -295,13 +292,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3A9C-A149-8316-6D6E19866A43}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5">
+                <a:schemeClr val="accent1">
                   <a:tint val="93000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -312,13 +314,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3A9C-A149-8316-6D6E19866A43}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5">
+                <a:schemeClr val="accent1">
                   <a:shade val="92000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -329,13 +336,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3A9C-A149-8316-6D6E19866A43}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5">
+                <a:schemeClr val="accent1">
                   <a:shade val="76000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -346,13 +358,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-3A9C-A149-8316-6D6E19866A43}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5">
+                <a:schemeClr val="accent1">
                   <a:shade val="61000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -363,13 +380,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-3A9C-A149-8316-6D6E19866A43}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5">
+                <a:schemeClr val="accent1">
                   <a:shade val="45000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -380,6 +402,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-3A9C-A149-8316-6D6E19866A43}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -403,7 +430,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -547,7 +574,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -608,8 +635,8 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="25">
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
+  <a:schemeClr val="accent1"/>
 </cs:colorStyle>
 </file>
 
@@ -1136,16 +1163,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>444963</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>32844</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>155253</xdr:rowOff>
+      <xdr:rowOff>155252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>252574</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>18539</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1460,7 +1487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="116" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="50" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
